--- a/biology/Botanique/Goldbachia/Goldbachia.xlsx
+++ b/biology/Botanique/Goldbachia/Goldbachia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Goldbachia est un genre de Brassicaceae comportant onze espèces. Son nom provient du botaniste Karl Ludwig Goldbach (1793-1824). Ce genre a été étudié pour la première fois par Augustin Pyrame de Candolle.
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Goldbachia hispida, Blatt. &amp; Halb.
 Goldbachia ikonnikovii, Vassilcz.
@@ -551,9 +565,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (19 septembre 2019)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (19 septembre 2019) :
 Goldbachia ikonnikovii Vassilcz.
 Goldbachia laevigata (M.Bieb.) DC.
 Goldbachia pendula Botsch.
@@ -561,7 +577,7 @@
 Goldbachia tetragona Ledeb.
 Goldbachia torulosa DC.
 Goldbachia verrucosa Kom.
-Selon Tropicos                                           (19 septembre 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (19 septembre 2019) (Attention liste brute contenant possiblement des synonymes) :
 Goldbachia hispida Blatt. &amp; Halb.
 Goldbachia ikonnikovii Vassilcz.
 Goldbachia laevigata (M. Bieb.) DC.
